--- a/2-一期需求-计划/2-开发时间节点.xlsx
+++ b/2-一期需求-计划/2-开发时间节点.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +170,144 @@
   </si>
   <si>
     <t>具体参看需求说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一单元课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一首snack song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有单元课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余的另外三个小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余的snack songs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一：技术调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二：主体框架，画面风格设计确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段性确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成用户登陆界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员、老师、学生个人信息设置页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员创建账号，分配用户权限页面与数据库操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据课件内容开发Unit 1的教学页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小游戏打气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据Unit 1的snack song 完成页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成剩余的所有Uints教学页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打地鼠
+寻找单词
+打飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的snack songs页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合全面测试、提高用户体验效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网站使用帮助页面的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证与测试部署方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要交付临时版本确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三：内容添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四：补充所有课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五：集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -238,12 +377,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -544,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,7 +755,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -587,7 +766,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -596,7 +775,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -605,7 +784,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -616,7 +795,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -628,7 +807,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -637,7 +816,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -645,25 +824,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -671,43 +850,43 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -715,13 +894,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
@@ -737,4 +916,392 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8">
+        <v>42800</v>
+      </c>
+      <c r="E2" s="8">
+        <v>42804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8">
+        <v>42807</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42816</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="9">
+        <v>42817</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42818</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="8">
+        <v>42821</v>
+      </c>
+      <c r="E10" s="8">
+        <v>42825</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42830</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="8">
+        <v>42835</v>
+      </c>
+      <c r="E17" s="8">
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="9">
+        <v>42846</v>
+      </c>
+      <c r="E20" s="9">
+        <v>42846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8">
+        <v>42849</v>
+      </c>
+      <c r="E21" s="8">
+        <v>42852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="9">
+        <v>42853</v>
+      </c>
+      <c r="E24" s="9">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2-一期需求-计划/2-开发时间节点.xlsx
+++ b/2-一期需求-计划/2-开发时间节点.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,18 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一首snack song</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有单元课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余的另外三个小游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剩余的snack songs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>起始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一：技术调研</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阶段性确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品交付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,15 +237,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成小游戏打气球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据Unit 1的snack song 完成页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成剩余的所有Uints教学页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,39 +247,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>综合全面测试、提高用户体验效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成网站使用帮助页面的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要交付临时版本确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四：补充所有课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费的数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录
+2、主页
+3、学习页面
+4、信息设置
+5、管理页面
+6、帮助页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三：内容添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成小游戏打气球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一首snack song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有单元课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成剩余的所有Uints教学页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余的另外三个小游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>所有的snack songs页面设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>综合全面测试、提高用户体验效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成网站使用帮助页面的设计</t>
+    <t>五：集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>验证与测试部署方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要交付临时版本确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三：内容添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四：补充所有课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五：集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,12 +365,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -360,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -380,13 +417,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -755,7 +810,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -766,7 +821,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -775,7 +830,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -784,7 +839,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -795,7 +850,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -807,7 +862,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -816,7 +871,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -824,25 +879,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -850,43 +905,43 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -894,13 +949,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
@@ -923,7 +978,8 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -931,14 +987,14 @@
     <col min="1" max="1" width="17.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="33.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" style="6" customWidth="1"/>
+    <col min="4" max="5" width="16.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -947,18 +1003,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>49</v>
+      <c r="A2" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -966,38 +1022,38 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>42800</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>42804</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>50</v>
+      <c r="A6" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1005,231 +1061,242 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>42807</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>42816</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11">
         <v>42817</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="11">
         <v>42818</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="8">
+        <v>49</v>
+      </c>
+      <c r="D10" s="7">
         <v>42821</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>42825</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11">
+        <v>42830</v>
+      </c>
+      <c r="E16" s="11">
+        <v>42832</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="7">
+        <v>42835</v>
+      </c>
+      <c r="E17" s="7">
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="9">
-        <v>42830</v>
-      </c>
-      <c r="E16" s="9">
-        <v>42832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="8">
-        <v>42835</v>
-      </c>
-      <c r="E17" s="8">
-        <v>42845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11">
+        <v>42846</v>
+      </c>
+      <c r="E20" s="11">
+        <v>42846</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="9">
-        <v>42846</v>
-      </c>
-      <c r="E20" s="9">
-        <v>42846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="8">
+        <v>55</v>
+      </c>
+      <c r="D21" s="7">
         <v>42849</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>42852</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="9">
+        <v>75</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15">
         <v>42853</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="15">
         <v>42853</v>
       </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -1238,57 +1305,49 @@
       <c r="A34" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7"/>
+      <c r="A49" s="6"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7"/>
+      <c r="A51" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A23"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="D21:D23"/>
@@ -1299,6 +1358,14 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="E10:E15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2-一期需求-计划/2-开发时间节点.xlsx
+++ b/2-一期需求-计划/2-开发时间节点.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -414,34 +414,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,7 +779,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,7 +810,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -862,7 +862,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -879,25 +879,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -905,43 +905,43 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -949,13 +949,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
@@ -979,7 +979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1013,7 +1013,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1022,37 +1022,37 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="15">
         <v>42800</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="15">
         <v>42804</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1061,53 +1061,53 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="15">
         <v>42807</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="15">
         <v>42816</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="81" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9">
         <v>42817</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>42818</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1116,84 +1116,84 @@
       <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="15">
         <v>42821</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="15">
         <v>42825</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9">
         <v>42830</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>42832</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1202,51 +1202,51 @@
       <c r="C17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="15">
         <v>42835</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="15">
         <v>42845</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9">
         <v>42846</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>42846</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1255,48 +1255,48 @@
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="15">
         <v>42849</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="15">
         <v>42852</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13">
         <v>42853</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <v>42853</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
@@ -1305,49 +1305,57 @@
       <c r="A34" s="5"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
+      <c r="A37" s="14"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
+      <c r="A38" s="14"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6"/>
+      <c r="A41" s="14"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6"/>
+      <c r="A42" s="14"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6"/>
+      <c r="A43" s="14"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6"/>
+      <c r="A44" s="14"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6"/>
+      <c r="A45" s="14"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6"/>
+      <c r="A46" s="14"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6"/>
+      <c r="A47" s="14"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6"/>
+      <c r="A49" s="14"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6"/>
+      <c r="A50" s="14"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6"/>
+      <c r="A51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="D21:D23"/>
@@ -1358,14 +1366,6 @@
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="E10:E15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
